--- a/mfa/S_cerevisiae/result_files/FY4_batch/mfa.xlsx
+++ b/mfa/S_cerevisiae/result_files/FY4_batch/mfa.xlsx
@@ -499,21 +499,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.124228 0.005031 0.246492 0.129577 0.130245 0.245812 0.005026 0.121038</t>
+          <t>0.124161 0.005916 0.246173 0.130282 0.13095 0.245453 0.005916 0.120846</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-0.02260869565217239 0.286304347826087 0.3006521739130425 -2.7017391304347815 2.436304347826086 -0.7800000000000017 0.8834782608695652 1.2169565217391316</t>
+          <t>-0.03600000000000094 0.46357894736842115 0.22400000000000198 -2.4679999999999964 2.5077894736842117 -0.8309473684210539 1.0429473684210526 1.1381052631578936</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>16.27776327977315</v>
+        <v>15.7199058171745</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.5020297142857143</v>
+        <v>0.5030844285714285</v>
       </c>
     </row>
     <row r="3">
@@ -542,21 +542,21 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.241492 0.009063 0.249354 0.248462 0.009507 0.241043</t>
+          <t>0.241544 0.008899 0.249347 0.2484 0.00937 0.241068</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.276086956521739 -0.023043478260869606 1.3978260869565198 -2.467826086956522 -0.24347826086956512 -2.174130434782605</t>
+          <t>3.1835789473684204 -0.05684210526315777 1.352210526315792 -2.4029473684210485 -0.26463157894736833 -2.100210526315786</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>23.56348492438561</v>
+        <v>22.22194942936285</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.4992799999999999</v>
+        <v>0.4991226</v>
       </c>
     </row>
     <row r="4">
@@ -585,21 +585,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.027389 0.027389 0.027389 0.027389 0.027389 0.027389 0.027389</t>
+          <t>0.028282 0.028282 0.028282 0.028282 0.028282 0.028282 0.028282</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.533291 0.005361 0.000985 0.017607 0.000847 0.000304 0.456212</t>
+          <t>0.533282 0.005501 0.00074 0.017595 0.000602 0.000446 0.456224</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-0.012924896856404997 0.19573551425754865 0.03596334294789879 0.6428493190696996 0.030924823834386068 -0.3473292197597575 -0.01190258863047183</t>
+          <t>-0.012835018739834602 0.19450533908493034 0.026165051976522167 0.6221271480093346 0.02128562336468425 -0.3313414892864719 -0.011102468000847923</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.5747636568089963</v>
+        <v>0.5360873879540684</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0.4670553333333333</v>
+        <v>0.466958</v>
       </c>
     </row>
     <row r="5">
@@ -628,21 +628,21 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.15443 0.100872 0.256097 0.241449 0.107838 0.141191</t>
+          <t>0.154441 0.100684 0.256178 0.241413 0.107719 0.141323</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-0.03434782608695467 0.6178260869565212 0.3930434782608765 -0.6552173913043514 0.35195652173913244 -0.26521739130434757</t>
+          <t>-0.030947368421054364 0.558736842105261 0.397684210526322 -0.6421052631579 0.31578947368421084 -0.22905263157894856</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.160895510396986</v>
+        <v>1.03578459833796</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.494944</v>
+        <v>0.4949540000000001</v>
       </c>
     </row>
     <row r="6">
@@ -671,21 +671,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.005664 0.005664 0.005664 0.005664 0.005664 0.005664 0.005664 0.005664 0.005664 0.005664 0.005664</t>
+          <t>0.005849 0.005849 0.005849 0.005849 0.005849 0.005849 0.005849 0.005849 0.005849 0.005849 0.005849</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.039794 0.060258 0.092249 0.125629 0.137877 0.131481 0.138377 0.124138 0.090937 0.056176 0.017325</t>
+          <t>0.039759 0.060563 0.092585 0.125735 0.137618 0.131034 0.138141 0.124242 0.091265 0.056468 0.017417</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.0022951977401140648 0.04978813559321991 -1.3719985875706215 -2.3940677966101727 -0.22492937853107298 -0.055790960451979295 0.2464689265536738 1.060381355932203 1.5121822033898311 2.456214689265536 1.2337570621468925</t>
+          <t>-0.003761326722515686 0.1003590357326034 -1.2711574628141558 -2.3002222602154205 -0.26209608480082175 -0.1304496495127348 0.1983244999145191 1.0446230124807667 1.5204308428791242 2.4284493075739433 1.2104633270644551</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>18.6971283782099</v>
+        <v>17.80752859308964</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.4936114</v>
+        <v>0.4939622000000001</v>
       </c>
     </row>
     <row r="7">
@@ -714,21 +714,21 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.083498 0.124187 0.181321 0.248693 0.172328 0.125222 0.068061</t>
+          <t>0.083498 0.124178 0.18132 0.248732 0.17224 0.12525 0.068105</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.09347826086956518 -1.4036956521739141 -0.7554347826086909 -0.10304347826087004 0.5184782608695648 1.372826086956522 0.9969565217391289</t>
+          <t>0.09052631578947365 -1.3612631578947396 -0.7317894736842061 -0.09157894736841915 0.4835789473684197 1.335368421052632 0.9747368421052621</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5.707792816635154</v>
+        <v>5.372304265927977</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.4927826666666666</v>
+        <v>0.4928090000000001</v>
       </c>
     </row>
     <row r="8">
@@ -757,21 +757,21 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.259238 0.240196 0.009119 0.258062 0.23995</t>
+          <t>0.25925 0.239925 0.008479 0.258046 0.240271</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-0.023478260869564564 0.51413043478261 1.4758695652173912 -0.08021739130434961 -0.4591304347826093</t>
+          <t>-0.020210526315798 0.44084210526316053 1.2945263157894737 -0.08105263157895247 -0.37705263157894464</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.660307892249529</v>
+        <v>2.019286825484766</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0.498105</v>
+        <v>0.49802625</v>
       </c>
     </row>
     <row r="9">
@@ -800,21 +800,21 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.081487 0.124186 0.181518 0.248968 0.172519 0.125361 0.068137</t>
+          <t>0.081488 0.124177 0.181517 0.249007 0.172431 0.125388 0.06818</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.05586956521739288 -0.8410869565217386 -0.3976086956521733 -0.1871739130434784 0.37043478260869805 0.9519565217391291 0.5206521739130453</t>
+          <t>0.05431578947368594 -0.8164210526315803 -0.3852631578947365 -0.17305263157894515 0.3402105263157908 0.9275789473684196 0.5132631578947389</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.218197258979206</v>
+        <v>2.087453429362883</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0.4933048333333334</v>
+        <v>0.4933293333333333</v>
       </c>
     </row>
     <row r="10">
@@ -843,21 +843,21 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.005664 0.005664 0.005664 0.005664 0.005664 0.005664 0.005664 0.005664 0.005664 0.005664 0.005664</t>
+          <t>0.005849 0.005849 0.005849 0.005849 0.005849 0.005849 0.005849 0.005849 0.005849 0.005849 0.005849</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.039794 0.060258 0.092249 0.125629 0.137877 0.131481 0.138377 0.124138 0.090937 0.056176 0.017325</t>
+          <t>0.039759 0.060563 0.092585 0.125735 0.137618 0.131034 0.138141 0.124242 0.091265 0.056468 0.017417</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.0022951977401140648 0.04978813559321991 -1.3719985875706215 -2.3940677966101727 -0.22492937853107298 -0.055790960451979295 0.2464689265536738 1.060381355932203 1.5121822033898311 2.456214689265536 1.2337570621468925</t>
+          <t>-0.003761326722515686 0.1003590357326034 -1.2711574628141558 -2.3002222602154205 -0.26209608480082175 -0.1304496495127348 0.1983244999145191 1.0446230124807667 1.5204308428791242 2.4284493075739433 1.2104633270644551</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>18.6971283782099</v>
+        <v>17.80752859308964</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0.4936114</v>
+        <v>0.4939622000000001</v>
       </c>
     </row>
     <row r="11">
@@ -886,21 +886,21 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.01881 0.01881 0.01881 0.01881</t>
+          <t>0.019424 0.019424 0.019424 0.019424</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.496318 0.001403 0.001403 0.496318</t>
+          <t>0.496316 0.00061 0.00061 0.496316</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.3597022860180752 0.0315257841573631 -0.274481658692185 -0.35906432748537914</t>
+          <t>0.3482289950576602 -0.01029654036243822 -0.30663097199341016 -0.3478171334431623</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.3346469818643065</v>
+        <v>0.3363687630445453</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0.4977209999999999</v>
+        <v>0.496926</v>
       </c>
     </row>
     <row r="12">
@@ -929,21 +929,21 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.009371 0.009371 0.009371 0.009371 0.009371 0.009371 0.009371</t>
+          <t>0.009677 0.009677 0.009677 0.009677 0.009677 0.009677 0.009677</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.333245 0.00183 0.001208 0.345408 0.001185 0.001004 0.320668</t>
+          <t>0.333275 0.001396 0.000621 0.345736 0.000597 0.000546 0.320307</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-0.007149717212675673 0.10511151424607831 0.12890833422260164 -0.5592786255468994 0.10255042151317895 0.10713904599295697 0.6080460996691901</t>
+          <t>-0.0038234990182917485 0.05693913402914127 0.06417278082050222 -0.5076986669422342 0.03854500361682339 0.05642244497261548 0.5515138989356185</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.7322249119607259</v>
+        <v>0.5739695566615657</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0.4957063333333334</v>
+        <v>0.4944676666666667</v>
       </c>
     </row>
     <row r="13">
@@ -972,21 +972,21 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.005047 0.005047 0.005047 0.005047 0.005047</t>
+          <t>0.005212 0.005212 0.005212 0.005212 0.005212</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.270814 0.236797 0.004982 0.253572 0.233861</t>
+          <t>0.270856 0.23578 0.008318 0.252794 0.23538</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.061422627303343955 -1.403011690112939 -0.18050326926887247 -2.064790964929653 3.592034872201309</t>
+          <t>0.06753645433614035 -1.553722179585576 0.4652724481964699 -2.148695318495771 3.769762087490407</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>19.17087222392056</v>
+        <v>21.46309000305686</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0.48573025</v>
+        <v>0.4880795</v>
       </c>
     </row>
     <row r="14">
@@ -1015,21 +1015,21 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.008355 0.008355 0.008355 0.008355</t>
+          <t>0.008628 0.008628 0.008628 0.008628</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.513876 0.002124 0.001223 0.486116</t>
+          <t>0.513898 0.001454 0.000552 0.4861</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-0.0083782166367462 0.2542190305206463 0.1463794135248354 0.007420706163974446</t>
+          <t>-0.005563282336584145 0.16852109411219285 0.06397774687065368 0.005331478905886705</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.08617950957671637</v>
+        <v>0.03255188603309646</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0.4876393333333333</v>
+        <v>0.4869526666666666</v>
       </c>
     </row>
     <row r="15">
@@ -1058,21 +1058,21 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.495158 0.001432 0.000918 0.018454 0.000888 0.000319 0.478193</t>
+          <t>0.495149 0.001579 0.000662 0.018441 0.000631 0.000467 0.478202</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-0.011086956521744185 0.16369565217391302 0.19956521739130434 -0.5549999999999999 -0.5102173913043478 -0.3284782608695652 0.03326086956520842</t>
+          <t>-0.012631578947369368 0.18947368421052635 0.13936842105263159 -0.5402105263157899 -0.5482105263157895 -0.2869473684210527 0.034105263157893785</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.7440965028355383</v>
+        <v>0.7313475457063717</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0.4888224999999999</v>
+        <v>0.4887161666666667</v>
       </c>
     </row>
     <row r="16">
@@ -1101,21 +1101,21 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.010748 0.010748 0.010748 0.010748 0.010748 0.010748 0.010748</t>
+          <t>0.011099 0.011099 0.011099 0.011099 0.011099 0.011099 0.011099</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.516745 0.003567 0.000956 0.018028 0.000867 0.000311 0.46712</t>
+          <t>0.516736 0.003711 0.000706 0.018029 0.000617 0.000457 0.46713</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-0.006512839598066105 0.09620394491998509 0.08894678079642725 0.5082806103461108 0.08066617045031634 -0.04754372906587272 -0.013490882024563288</t>
+          <t>-0.007117758356613321 0.10613568789981077 0.06360933417424994 0.4922966032975944 0.05559059374718444 -0.03288584557167313 -0.012163257951166432</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.2845077658920696</v>
+        <v>0.2620372775385447</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0.4778843333333333</v>
+        <v>0.4777905</v>
       </c>
     </row>
     <row r="17">
@@ -1144,21 +1144,21 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.150834 0.100853 0.256585 0.241912 0.108045 0.141462</t>
+          <t>0.150844 0.100664 0.256663 0.241875 0.107925 0.141593</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.036086956521739016 -0.6658695652173905 0.24891304347826243 -0.3573913043478275 0.31847826086956693 0.3526086956521766</t>
+          <t>0.03705263157894936 -0.6846315789473666 0.25747368421052086 -0.35389473684210276 0.2831578947368419 0.36905263157894835</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.8601320888468846</v>
+        <v>0.8780057174515171</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0.4958498</v>
+        <v>0.495856</v>
       </c>
     </row>
     <row r="18">
@@ -1187,21 +1187,21 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.153519 0.10095 0.256449 0.241781 0.107987 0.141386</t>
+          <t>0.15353 0.100761 0.256529 0.241745 0.107868 0.141517</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.0028260869565185317 -0.06543478260869472 0.5895652173913026 -1.054130434782607 0.8502173913043474 0.12739130434782678</t>
+          <t>0.005052631578946578 -0.1031578947368401 0.5877894736842141 -1.0284210526315791 0.798315789473685 0.15094736842105166</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.202165973534965</v>
+        <v>2.073906614958454</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0.4956138</v>
+        <v>0.4956222</v>
       </c>
     </row>
     <row r="19">
@@ -1230,21 +1230,21 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.012074 0.012074 0.012074</t>
+          <t>0.012467 0.012467 0.012467</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.474319 0.058407 0.47226</t>
+          <t>0.474381 0.057777 0.472281</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.275882060626139 0.4775550770250125 -1.3404836839489818</t>
+          <t>1.240635277131628 0.4119675944493464 -1.2965428731852098</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.652830391153402</v>
+        <v>3.389916611747211</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0.5014635000000001</v>
+        <v>0.5011695</v>
       </c>
     </row>
     <row r="20">
@@ -1273,21 +1273,21 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.519572 0.002691 0.001368 0.478804</t>
+          <t>0.519597 0.001928 0.000604 0.478785</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-0.00913043478260576 0.2767391304347826 0.2541304347826087 0.0076086956521754885</t>
+          <t>-0.0035789473684304752 0.10736842105263159 0.08526315789473685 0.003368421052634948</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.1413080812854442</v>
+        <v>0.01882193905817184</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0.480613</v>
+        <v>0.4798303333333334</v>
       </c>
     </row>
     <row r="21">
@@ -1316,21 +1316,21 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.173806 0.158897 0.093329 0.173685 0.093288 0.157398 0.150952</t>
+          <t>0.173758 0.159642 0.092721 0.172351 0.092681 0.158194 0.151688</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-0.004782608695656957 0.09760869565217499 -0.8643478260869581 0.2504347826086987 1.4441304347826078 -2.6878260869565187 2.0593478260869587</t>
+          <t>-0.01473684210526621 0.25136842105263174 -0.9650526315789484 -0.038315789473681625 1.2707368421052632 -2.4353684210526305 2.149263157894736</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>14.37020033081285</v>
+        <v>13.16132152908586</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0.4887440000000001</v>
+        <v>0.4889931666666666</v>
       </c>
     </row>
     <row r="22">
@@ -1359,21 +1359,21 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.130503 0.118841 0.131809 0.244188 0.12295 0.127295 0.117592</t>
+          <t>0.130511 0.118725 0.131783 0.244193 0.122821 0.127321 0.117816</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-0.06804347826086521 1.0973913043478254 -2.283260869565214 1.650869565217389 -2.6104347826086935 1.1739130434782583 -0.44347826086956527</t>
+          <t>-0.06421052631578941 1.0383157894736825 -2.2166315789473647 1.5997894736842095 -2.555157894736841 1.1423157894736813 -0.38231578947368383</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>17.53666266540638</v>
+        <v>16.53488718005536</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0.4914749999999999</v>
+        <v>0.4916091666666667</v>
       </c>
     </row>
     <row r="23">
@@ -1402,21 +1402,21 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.009808 0.009808 0.009808 0.009808 0.009808 0.009808 0.009808 0.009808 0.009808 0.009808 0.009808</t>
+          <t>0.010128 0.010128 0.010128 0.010128 0.010128 0.010128 0.010128 0.010128 0.010128 0.010128 0.010128</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.019113 0.059159 0.09405 0.128236 0.140741 0.134213 0.141252 0.126717 0.092826 0.057343 0.017685</t>
+          <t>0.019231 0.059487 0.094394 0.128345 0.140478 0.133757 0.141011 0.126824 0.093161 0.057642 0.017779</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.2898654159869496 -0.40099918433931403 -0.6852569331158243 -1.672206362153344 0.31606851549755216 -0.8756117455138674 1.5062194127243045 0.32962887438825444 0.37622349102773234 1.1542618270799345 0.817495921696574</t>
+          <t>0.2923578199052135 -0.35594391785150054 -0.6296406003159551 -1.608609794628752 0.2801145339652427 -0.8929699842022141 1.4348341232227477 0.32977883096366467 0.3974131121642957 1.1473143759873616 0.8009478672985781</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>8.896784899349727</v>
+        <v>8.35538945299534</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0.5036072</v>
+        <v>0.5039697</v>
       </c>
     </row>
     <row r="24">
@@ -1445,21 +1445,21 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.131569 0.002566 0.367998 0.003964 0.367981 0.001982 0.122657</t>
+          <t>0.131511 0.003461 0.368015 0.005763 0.36796 0.002881 0.122633</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.006086956521739184 -0.08717391304347824 -0.2508695652173888 -0.38673913043478264 0.09413043478261233 -0.13478260869565226 0.48043478260869643</t>
+          <t>-0.006315789473684684 0.10400000000000002 -0.2393684210526314 0.004210526315789485 0.0867368421052681 0.0587368421052631 0.460210526315791</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.4779835066162573</v>
+        <v>0.2909378836565119</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0.494705</v>
+        <v>0.4964705</v>
       </c>
     </row>
     <row r="25">
@@ -1488,21 +1488,21 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.133063 0.005084 0.369955 0.008887 0.369937 0.004443 0.123298</t>
+          <t>0.133056 0.005184 0.36995 0.009089 0.369933 0.004544 0.123296</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-0.03326086956522049 0.552608695652174 -1.6628260869565255 1.0845652173913045 1.2123913043478258 0.7765217391304348 1.2584782608695657</t>
+          <t>-0.033684210526314415 0.5562105263157895 -1.6113684210526305 1.0928421052631578 1.1732631578947357 0.7732631578947369 1.2183157894736842</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>7.904401181474493</v>
+        <v>7.560092542936281</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0.5022343333333333</v>
+        <v>0.5024298333333334</v>
       </c>
     </row>
     <row r="26">
@@ -1531,21 +1531,21 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.26164 0.235931 0.013101 0.253226 0.237442</t>
+          <t>0.261655 0.235593 0.012881 0.253136 0.237877</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>-0.03152173913043614 0.7143478260869589 0.29282608695652157 -0.102826086956522 -0.5815217391304371</t>
+          <t>-0.027368421052623892 0.6206315789473698 0.23726315789473676 -0.11852631578946951 -0.4715789473684194</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.9457742911153182</v>
+        <v>0.6786615844875332</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0.49289475</v>
+        <v>0.49306775</v>
       </c>
     </row>
     <row r="27">
@@ -1574,21 +1574,21 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.006944 0.006944 0.006944 0.006944 0.006944 0.006944</t>
+          <t>0.00717 0.00717 0.00717 0.00717 0.00717 0.00717</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.137039 0.247815 0.123736 0.132617 0.247192 0.119101</t>
+          <t>0.137031 0.24796 0.123308 0.132306 0.24737 0.119273</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>-0.0040322580645161645 0.04392281105990779 1.3791762672811063 0.3231566820276532 -1.1319124423963143 0.4697580645161292</t>
+          <t>-0.0050209205020932 0.06276150627615146 1.2760111576011164 0.2695955369595562 -1.071408647140864 0.4789400278940037</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.5104013062366</v>
+        <v>3.082150483671117</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0.4954822</v>
+        <v>0.4954678</v>
       </c>
     </row>
     <row r="28">
@@ -1617,21 +1617,21 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.157419 0.100671 0.255091 0.240496 0.107413 0.140634</t>
+          <t>0.157429 0.100483 0.25517 0.240459 0.107294 0.140764</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.036521739130435105 -0.6717391304347846 0.2530434782608692 -0.8091304347826094 0.8526086956521728 0.7134782608695668</t>
+          <t>0.037473684210528733 -0.6901052631578954 0.2616842105263146 -0.7913684210526284 0.8006315789473686 0.7183157894736839</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.407283175803407</v>
+        <v>2.329380653739607</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0.4930326</v>
+        <v>0.4930392</v>
       </c>
     </row>
     <row r="29">
@@ -1660,21 +1660,21 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.066671 0.066671 0.066671 0.066671</t>
+          <t>0.068846 0.068846 0.068846 0.068846</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.491796 0.002921 0.001108 0.435906</t>
+          <t>0.491754 0.004193 0.002521 0.436156</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-0.0010499317544361792 0.04381215221010635 -1.0703454275472097 0.003614765040272251</t>
+          <t>-0.0016268192778084562 0.06090404671295354 -1.0160067396798653 0.007131859512534696</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.147573007835486</v>
+        <v>1.036032507941992</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0.4376183333333333</v>
+        <v>0.4392343333333333</v>
       </c>
     </row>
     <row r="30">
@@ -1703,21 +1703,21 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.114375 0.028922 0.096517 0.150003 0.123378 0.123378 0.150001 0.096438 0.027113 0.095991</t>
+          <t>0.114343 0.029238 0.096575 0.149915 0.123516 0.123483 0.149945 0.096447 0.027424 0.095683</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>-0.04173913043478211 0.5019565217391301 -1.6930434782608672 -2.358913043478261 -1.6632608695652185 3.4015217391304367 0.30434782608695315 1.0658695652173893 0.42695652173913057 1.3858695652173925</t>
+          <t>-0.04715789473684252 0.5526315789473681 -1.6273684210526318 -2.3029473684210537 -1.5816842105263171 3.31621052631579 0.2829473684210493 1.0341052631578946 0.4789473684210525 1.2772631578947375</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>26.3529881852552</v>
+        <v>24.76872195013852</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0.4931402222222222</v>
+        <v>0.4932166666666667</v>
       </c>
     </row>
     <row r="31">
@@ -1746,21 +1746,21 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.007097 0.007097 0.007097 0.007097 0.007097 0.007097 0.007097 0.007097 0.007097 0.007097</t>
+          <t>0.007329 0.007329 0.007329 0.007329 0.007329 0.007329 0.007329 0.007329 0.007329 0.007329</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.110749 0.028555 0.096447 0.149918 0.123309 0.123309 0.149916 0.096383 0.027097 0.095937</t>
+          <t>0.110717 0.028871 0.096508 0.149834 0.12345 0.123417 0.149865 0.096395 0.027409 0.095631</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.011695082429195399 -0.05847541214597699 -1.3467662392560233 -1.1049739326475998 -0.5417782161476662 -1.1699309567422862 2.8482457376356183 -0.4027053684655487 1.0517119909821049 0.9412427786388603</t>
+          <t>0.006958657388456201 -0.01350798198935713 -1.2958111611406748 -1.0814572247237026 -0.505389548369489 -1.1181607313412483 2.751125665165778 -0.38832037112839424 1.060990585345886 0.8696957292945819</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>14.96727639891104</v>
+        <v>13.9561660193616</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0.4928188888888889</v>
+        <v>0.4929088888888889</v>
       </c>
     </row>
     <row r="32">
@@ -1789,21 +1789,21 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.005241 0.005241 0.005241 0.005241 0.005241 0.005241</t>
+          <t>0.005412 0.005412 0.005412 0.005412 0.005412 0.005412</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.151053 0.102248 0.260414 0.245525 0.109659 0.143575</t>
+          <t>0.151222 0.102052 0.260458 0.245453 0.109522 0.143688</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-0.0364434268269408 0.7676016027475671 -0.3071932837244801 -1.9744323602366005 2.1390955924441926 1.7914520129746248</t>
+          <t>-0.004065040650405441 0.7071322985957127 -0.2893569844789276 -1.9253510716925373 2.0461936437546195 1.7557280118255747</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>12.36832147101943</v>
+        <v>11.56024610525788</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0.5032324</v>
+        <v>0.503171</v>
       </c>
     </row>
     <row r="33">
@@ -1832,21 +1832,21 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.008845 0.008845 0.008845 0.008845 0.008845 0.008845</t>
+          <t>0.009133 0.009133 0.009133 0.009133 0.009133 0.009133</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.309952 0.013236 0.178314 0.178314 0.013236 0.309952</t>
+          <t>0.310831 0.013331 0.176585 0.176585 0.013331 0.310831</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.8919163369135081 0.8798191068400225 -1.7692481628038434 -1.2938383267382711 0.8338044092707744 0.7971735443753566</t>
+          <t>0.960035037775101 0.8624767327274719 -1.9027701740939453 -1.4423519106536753 0.81791306252053 0.8682798642286267</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>7.704568542907003</v>
+        <v>8.789338458306499</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0.501502</v>
+        <v>0.5007470000000001</v>
       </c>
     </row>
     <row r="34">
@@ -1875,21 +1875,21 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.007337 0.007337 0.007337 0.007337 0.007337 0.007337 0.007337 0.007337</t>
+          <t>0.007576 0.007576 0.007576 0.007576 0.007576 0.007576 0.007576 0.007576</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.1821 0.027357 0.161841 0.140901 0.1409 0.161788 0.025729 0.160832</t>
+          <t>0.182092 0.027475 0.161789 0.140591 0.14059 0.161737 0.025889 0.161379</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>-0.010085866157828914 0.1429739675616734 -0.33596837944663965 -1.2875834809867808 -0.03652719094997826 -0.12648221343873683 0.2841760937712962 1.5668529371677806</t>
+          <t>-0.010823653643083254 0.15403907074973572 -0.33223336853220947 -1.287882787750794 -0.07629355860612397 -0.12922386483632625 0.2963305174234425 1.589625131995776</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4.34440541757199</v>
+        <v>4.430105623103699</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0.4894971428571428</v>
+        <v>0.4898368571428571</v>
       </c>
     </row>
     <row r="35">
@@ -1918,21 +1918,21 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.013127 0.013127 0.013127 0.013127</t>
+          <t>0.013555 0.013555 0.013555 0.013555</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.453752 0.054131 0.053624 0.444236</t>
+          <t>0.453723 0.055025 0.054503 0.444034</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>-0.020949188695057915 0.6390645235011808 -0.14115944237068642 -0.03946065361468446</t>
+          <t>-0.0224271486536353 0.6848395426042051 -0.071855403909996 -0.05311693102176307</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.4303254650588737</v>
+        <v>0.4774927835433085</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0.498029</v>
+        <v>0.498711</v>
       </c>
     </row>
     <row r="36">
@@ -1961,21 +1961,21 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.290852 0.103382 0.271563 0.108078 0.228857</t>
+          <t>0.290861 0.103159 0.271888 0.107892 0.228646</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>-0.05217391304348217 1.18717391304348 0.42239130434782013 0.01456521739130383 -0.9780434782608702</t>
+          <t>-0.04863157894737616 1.1027368421052646 0.4774736842105247 -0.02505263157894613 -0.9915789473684252</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.547299621928167</v>
+        <v>2.430231135734083</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0.4715425</v>
+        <v>0.47129875</v>
       </c>
     </row>
     <row r="37">
@@ -2004,21 +2004,21 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.257598 0.239645 0.0091 0.257523 0.239448</t>
+          <t>0.257969 0.239262 0.008456 0.257361 0.239633</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1.649565217391301 0.4058695652173929 0.8254347826086956 -0.6852173913043452 -1.475217391304351</t>
+          <t>1.6755789473684197 0.3124210526315817 0.6637894736842105 -0.6976842105263124 -1.389684210526315</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>6.212927315689976</v>
+        <v>5.76377365096952</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0.4970515</v>
+        <v>0.49669725</v>
       </c>
     </row>
     <row r="38">
@@ -2047,21 +2047,21 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.004723 0.004723 0.004723 0.004723 0.004723 0.004723 0.004723 0.004723 0.004723 0.004723 0.004723 0.004723</t>
+          <t>0.004877 0.004877 0.004877 0.004877 0.004877 0.004877 0.004877 0.004877 0.004877 0.004877 0.004877 0.004877</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.050772 0.020357 0.093151 0.093045 0.116136 0.139447 0.139447 0.116125 0.093012 0.093072 0.019368 0.042744</t>
+          <t>0.050755 0.020507 0.093029 0.093118 0.116184 0.139443 0.139442 0.116173 0.093084 0.092948 0.019505 0.042629</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>-0.12830827863646038 1.118145246665255 -0.8973110311242867 -1.6258733855600236 -0.8505187380901954 1.5121744653821685 -2.443785729409279 -0.0783400381113689 1.4391276730891378 2.3080669066271455 1.2007198814312936 1.9767097183993219</t>
+          <t>-0.12774246462989514 1.113594422800902 -0.8939922083247903 -1.5595653065409036 -0.8138199712938282 1.463604675005127 -2.367644043469346 -0.066024195201969 1.4084478162805003 2.209760098421162 1.1908960426491697 1.8907115029731392</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>26.45099359928568</v>
+        <v>24.76220410660796</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0.5038852727272727</v>
+        <v>0.5039005454545454</v>
       </c>
     </row>
     <row r="39">
@@ -2090,21 +2090,21 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.107738 0.028299 0.096654 0.150262 0.123591 0.123591 0.15026 0.096605 0.027159 0.096157</t>
+          <t>0.107706 0.028616 0.096715 0.150177 0.123733 0.1237 0.150209 0.096616 0.027472 0.095851</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>-0.0036956521739137226 0.10304347826087004 -1.4710869565217382 -0.5360869565217382 -0.7213043478260843 -0.19086956521738913 1.2452173913043503 0.16543478260869518 0.17804347826086964 1.300000000000003</t>
+          <t>-0.010315789473685763 0.1665263157894737 -1.4117894736842114 -0.5370526315789469 -0.668631578947368 -0.16189473684210356 1.1951578947368453 0.16252631578947263 0.23831578947368445 1.1945263157894763</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>6.31846332703214</v>
+        <v>5.721195301939073</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0.4939102222222222</v>
+        <v>0.4940011111111111</v>
       </c>
     </row>
     <row r="40">
@@ -2133,21 +2133,21 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.045753 0.079676 0.100195 0.152324 0.130663 0.136404 0.148816 0.096945 0.079987 0.040064</t>
+          <t>0.04516 0.080077 0.10157 0.151739 0.13031 0.136065 0.14827 0.098309 0.080268 0.039388</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1.2841304347826092 -0.966304347826088 -0.9984782608695651 -2.1326086956521766 2.4697826086956516 0.7173913043478255 -0.8117391304347799 0.29956521739130526 0.36304347826087063 2.1289130434782617</t>
+          <t>1.118736842105263 -0.8513684210526329 -0.677473684210529 -2.1884210526315764 2.317473684210527 0.6233684210526298 -0.9010526315789428 0.5772631578947357 0.4107368421052649 1.9193684210526316</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>20.15492121928168</v>
+        <v>17.98163855955677</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0.5015214444444445</v>
+        <v>0.501602</v>
       </c>
     </row>
     <row r="41">
@@ -2176,21 +2176,21 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.241937 0.00908 0.249814 0.24892 0.009524 0.241487</t>
+          <t>0.24199 0.008915 0.249808 0.248859 0.009388 0.241514</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.17652173913043634 0.18086956521739117 1.1239130434782627 -1.0343478260869592 -0.0013043478260871297 -0.2799999999999964</t>
+          <t>0.1821052631578957 0.14042105263157878 1.0871578947368425 -1.0145263157894775 -0.029894736842105214 -0.26547368421052303</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.475331379962201</v>
+        <v>2.335426304709149</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0.5001998000000001</v>
+        <v>0.500046</v>
       </c>
     </row>
     <row r="42">
@@ -2219,21 +2219,21 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.433625 0.008072 0.409495 0.004275 0.138566 0.000923 0.015626 4.5e-05</t>
+          <t>0.433742 0.006509 0.410862 0.003843 0.134514 0.000804 0.01468 3.8e-05</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>-0.02260869565217239 0.3132608695652173 -0.5852173913043539 -0.1521739130434783 1.67586956521739 0.09804347826086957 0.9756521739130436 0.007391304347826087</t>
+          <t>0.002736842105271738 -0.02568421052631573 -0.278947368421057 -0.23831578947368426 0.769894736842104 0.06989473684210527 0.7456842105263158 0.00568421052631579</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4.234382939508509</v>
+        <v>1.28897365096953</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0.2132624285714286</v>
+        <v>0.2100262857142857</v>
       </c>
     </row>
     <row r="43">
@@ -2262,21 +2262,21 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.542785 0.006019 0.374382 0.002619 0.064554 0.000187</t>
+          <t>0.551331 0.004364 0.362072 0.001904 0.059444 0.000154</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0.39891304347824347 -1.325 -0.5678260869565225 -0.5800000000000001 0.08608695652173774 -0.0673913043478261</t>
+          <t>2.1854736842105207 -1.631578947368421 -3.1414736842105246 -0.7122105263157894 -0.9924210526315811 -0.07221052631578949</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.585535633270308</v>
+        <v>18.80455973407199</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0.2043582</v>
+        <v>0.1945532</v>
       </c>
     </row>
     <row r="44">
@@ -2305,21 +2305,21 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.027605 0.027605 0.027605 0.027605 0.027605 0.027605 0.027605</t>
+          <t>0.028505 0.028505 0.028505 0.028505 0.028505 0.028505 0.028505</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.502044 0.001507 0.494741 0.000244 0.002542 1.1e-05 0.0</t>
+          <t>0.501381 0.001406 0.495475 0.000523 0.002669 4.6e-05 0.0</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0.8181851113928654 -0.04944756384712914 -0.8306103966672695 0.008838978445933707 0.09208476725230937 0.0003984785364970114 0.0</t>
+          <t>0.7690931415541123 -0.051429573758989655 -0.778635327135589 0.01834765830556043 0.09363269601824241 0.001613751973338011 0.0</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.370343459812154</v>
+        <v>1.209528556630525</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0.1669906666666666</v>
+        <v>0.1674718333333333</v>
       </c>
     </row>
     <row r="45">
@@ -2348,21 +2348,21 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.554549 0.014879 0.361347 0.007748 0.060506 0.001024</t>
+          <t>0.554647 0.013083 0.361468 0.007274 0.059296 0.001</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0.02565217391303293 -0.4665217391304345 -0.12043478260869542 0.04304347826086943 0.5949999999999992 -0.06521739130434785</t>
+          <t>0.04547368421052505 -0.8298947368421051 -0.09115789473683394 -0.05810526315789478 0.32147368421052647 -0.06821052631578949</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.5929361531190908</v>
+        <v>0.8104771191135717</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0.2015922</v>
+        <v>0.200005</v>
       </c>
     </row>
     <row r="46">
@@ -2391,21 +2391,21 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.736044 0.003888 0.2545 0.000736</t>
+          <t>0.739636 0.002711 0.243377 0.000632</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0.3182608695652219 -0.29021739130434787 -0.9156521739130421 -0.16282608695652173</t>
+          <t>1.0644210526315683 -0.528842105263158 -3.2284210526315764 -0.17957894736842106</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.050447353497165</v>
+        <v>11.86761724099719</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2413,7 +2413,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0.1716986666666667</v>
+        <v>0.163787</v>
       </c>
     </row>
     <row r="47">
@@ -2434,21 +2434,21 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.00682 0.00682 0.00682 0.00682 0.00682 0.00682 0.00682 0.00682 0.00682 0.00682 0.00682</t>
+          <t>0.007043 0.007043 0.007043 0.007043 0.007043 0.007043 0.007043 0.007043 0.007043 0.007043 0.007043</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.198389 0.31945 0.263423 0.145574 0.062629 0.02026 0.004059 0.000374 6e-06 0.0 0.0</t>
+          <t>0.198576 0.317712 0.264058 0.147112 0.063789 0.020842 0.004238 0.000399 7e-06 0.0 0.0</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0.1272727272727284 -1.200879765395891 0.7262463343108564 0.6560117302052795 0.97008797653959 0.4810850439882697 0.2611436950146628 0.054838709677419356 0.0008797653958944283 0.0 0.0</t>
+          <t>0.14979412182308682 -1.4096265795825633 0.7934118983387815 0.8536135169672 1.1040749680533861 0.5484878602868094 0.278290501206872 0.056651994888541814 0.0009938946471674003 0.0 0.0</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.659813275599628</v>
+        <v>4.968120356950529</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>0.1661854</v>
+        <v>0.1674807</v>
       </c>
     </row>
     <row r="48">
@@ -2477,21 +2477,21 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.552743 0.02316 0.351258 0.012636 0.058887 0.00185 1.4e-05</t>
+          <t>0.552861 0.021348 0.351394 0.012106 0.057711 0.001799 1.4e-05</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0.032391304347816244 -0.4895652173913045 -0.1686956521739128 -0.2067391304347827 0.9384782608695655 0.010217391304347862 0.003043478260869565</t>
+          <t>0.056210526315793104 -0.8555789473684214 -0.13473684210526934 -0.31178947368421045 0.6612631578947364 -0.0008421052631578696 0.0029473684210526317</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.192777693761815</v>
+        <v>1.287820011080334</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0.1680776666666667</v>
+        <v>0.1667295</v>
       </c>
     </row>
     <row r="49">
@@ -2520,21 +2520,21 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.736628 0.013389 0.24434 0.003921 0.001121</t>
+          <t>0.736165 0.012239 0.245828 0.00382 0.001163</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0.365434782608681 0.326086956521739 -1.1219565217391303 0.07521739130434782 0.22456521739130436</t>
+          <t>0.2564210526315666 0.07368421052631571 -0.7732631578947389 0.05157894736842105 0.22631578947368422</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.554748913043467</v>
+        <v>0.7229962548476422</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0.129579</v>
+        <v>0.13000175</v>
       </c>
     </row>
     <row r="50">
@@ -2563,21 +2563,21 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0.552031 0.023019 0.353781 0.012727 0.059312 0.001864 1.5e-05</t>
+          <t>0.552151 0.021194 0.353923 0.012194 0.058128 0.001812 1.4e-05</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0.03521739130434685 -0.532391304347826 -0.21543478260868787 -0.002391304347825839 1.1582608695652172 0.1508695652173913 0.0032608695652173916</t>
+          <t>0.05936842105260915 -0.8997894736842106 -0.17873684210526078 -0.11452631578947355 0.8724210526315793 0.13515789473684212 0.0029473684210526317</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.695439130434779</v>
+        <v>1.637603678670358</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0.1692366666666667</v>
+        <v>0.1678796666666667</v>
       </c>
     </row>
     <row r="51">
@@ -2606,21 +2606,21 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.00682 0.00682 0.00682 0.00682 0.00682 0.00682 0.00682 0.00682 0.00682 0.00682 0.00682</t>
+          <t>0.007043 0.007043 0.007043 0.007043 0.007043 0.007043 0.007043 0.007043 0.007043 0.007043 0.007043</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0.198389 0.31945 0.263423 0.145574 0.062629 0.02026 0.004059 0.000374 6e-06 0.0 0.0</t>
+          <t>0.198576 0.317712 0.264058 0.147112 0.063789 0.020842 0.004238 0.000399 7e-06 0.0 0.0</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0.1272727272727284 -1.200879765395891 0.7262463343108564 0.6560117302052795 0.97008797653959 0.4810850439882697 0.2611436950146628 0.054838709677419356 0.0008797653958944283 0.0 0.0</t>
+          <t>0.14979412182308682 -1.4096265795825633 0.7934118983387815 0.8536135169672 1.1040749680533861 0.5484878602868094 0.278290501206872 0.056651994888541814 0.0009938946471674003 0.0 0.0</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.659813275599628</v>
+        <v>4.968120356950529</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0.1661854</v>
+        <v>0.1674807</v>
       </c>
     </row>
     <row r="52">
@@ -2649,21 +2649,21 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.009275 0.009275 0.009275 0.009275</t>
+          <t>0.009578 0.009578 0.009578 0.009578</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0.723535 0.002177 0.275052 0.000189</t>
+          <t>0.724573 0.000974 0.272278 0.000101</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0.09218328840970891 0.23471698113207548 -0.24452830188679162 0.020377358490566037</t>
+          <t>0.19764042597619896 0.1016913760701608 -0.5264147003549793 0.010544998955940698</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.1237991470564736</v>
+        <v>0.3266265076998996</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0.1842826666666667</v>
+        <v>0.1819443333333334</v>
       </c>
     </row>
     <row r="53">
@@ -2692,21 +2692,21 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.006889 0.006889 0.006889 0.006889 0.006889 0.006889 0.006889</t>
+          <t>0.007113 0.007113 0.007113 0.007113 0.007113 0.007113 0.007113</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0.542038 0.002604 0.425365 0.001003 0.047604 6.8e-05 0.0</t>
+          <t>0.541204 0.00141 0.426355 0.000605 0.048199 5e-05 0.0</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0.3450428218899802 0.3779939033241399 -0.7773261721585134 -0.20046450863695744 3.0 0.009870808535346203 -0.04325736681666424</t>
+          <t>0.21692675383102375 0.19822859552931252 -0.6136651202024472 -0.2501054407423028 2.9891747504569097 0.0070293828201883875 -0.04189512160832278</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>9.908324569678737</v>
+        <v>9.462459706061713</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0.1745165</v>
+        <v>0.1748301666666667</v>
       </c>
     </row>
     <row r="54">
@@ -2735,21 +2735,21 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0.738374 0.013148 0.241201 0.003809 6.5e-05</t>
+          <t>0.738338 0.013963 0.241239 0.003898 0.00317</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0.05217391304348217 -1.190434782608696 -0.102826086956522 0.5126086956521739 -0.011304347826086957</t>
+          <t>0.04294736842107221 -0.9812631578947373 -0.09157894736841915 0.5151578947368421 0.6427368421052632</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.693325756143669</v>
+        <v>1.651606869806096</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0.12680925</v>
+        <v>0.13020375</v>
       </c>
     </row>
     <row r="55">
@@ -2778,21 +2778,21 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.006886 0.006886 0.006886 0.006886</t>
+          <t>0.00711 0.00711 0.00711 0.00711</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0.737866 0.001877 0.237102 0.000163</t>
+          <t>0.736407 0.000867 0.242379 9e-05</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1.647836189369735 0.11850130699970954 -5.128957304676153 0.023671216961951787</t>
+          <t>1.3907172995780601 -0.027285513361462736 -4.225175808720111 0.012658227848101267</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>29.03617002646054</v>
+        <v>19.78710995191099</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>0.1588566666666667</v>
+        <v>0.161965</v>
       </c>
     </row>
     <row r="56">
@@ -2821,21 +2821,21 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0.513791 0.002948 0.484237 0.000239 0.002488 1e-05 0.0</t>
+          <t>0.513792 0.002938 0.484234 0.000512 0.002608 4.5e-05 0.0</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>-0.040869565217383906 0.6204347826086957 0.03673913043477711 0.051956521739130436 0.5408695652173914 0.002173913043478261 -0.4041304347826087</t>
+          <t>-0.03936842105261836 0.5987368421052632 0.034947368421052526 0.10778947368421052 0.5490526315789473 0.009473684210526316 -0.3913684210526316</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.8465249054820406</v>
+        <v>0.827593351800553</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>0.1636901666666666</v>
+        <v>0.1639331666666667</v>
       </c>
     </row>
     <row r="57">
@@ -2864,21 +2864,21 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.005836 0.005836 0.005836 0.005836 0.005836 0.005836 0.005836</t>
+          <t>0.006026 0.006026 0.006026 0.006026 0.006026 0.006026 0.006026</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0.511586 0.002538 0.488396 0.000241 0.00251 1e-05 0.0</t>
+          <t>0.511587 0.002529 0.488393 0.000516 0.002632 4.6e-05 0.0</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>-0.028615490061690924 0.43488690884167236 0.025531185743661793 0.04129540781357094 0.430089102124743 0.0017135023989033587 0.0</t>
+          <t>-0.027547295054762607 0.4196813806837039 0.02422834384335131 0.08562894125456355 0.43677397942250246 0.007633587786259542 0.0</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.3772821937622409</v>
+        <v>0.3756404237462424</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0.1650238333333333</v>
+        <v>0.1652701666666667</v>
       </c>
     </row>
     <row r="58">
@@ -2907,21 +2907,21 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0.554102 0.01472 0.364485 0.007816 0.061032 0.001033</t>
+          <t>0.554644 0.012964 0.363958 0.007324 0.059706 0.001007</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>-0.007826086956529567 0.142608695652174 -0.03978260869564972 0.27717391304347827 0.23630434782608797 0.08456521739130435</t>
+          <t>0.10652631578947504 -0.2315789473684211 -0.14947368421052387 0.16484210526315787 -0.050315789473683405 0.07642105263157896</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.1617975425330817</v>
+        <v>0.1228638227146809</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0.2032862</v>
+        <v>0.2013422</v>
       </c>
     </row>
     <row r="59">
@@ -2950,21 +2950,21 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0.555411 0.014817 0.363886 0.007803 0.060932 0.001031</t>
+          <t>0.55551 0.013008 0.364022 0.007325 0.059716 0.001008</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>-0.0149999999999969 0.2754347826086958 -0.04434782608696467 0.24326086956521745 0.3017391304347827 0.08239130434782609</t>
+          <t>0.0063157894736788405 -0.11410526315789454 -0.014315789473686842 0.13494736842105265 0.036210526315789165 0.07494736842105262</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.2350667296786397</v>
+        <v>0.0384039445983379</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0.2029762</v>
+        <v>0.2013862</v>
       </c>
     </row>
     <row r="60">
@@ -2993,21 +2993,21 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0.751994 0.243077 0.000606</t>
+          <t>0.751074 0.245925 0.00121</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0.20000000000000695 -0.61717391304348 -0.5226086956521739</t>
+          <t>0.0 0.001894736842107158 -0.3789473684210527</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.6940234877126703</v>
+        <v>0.1436046980609419</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0.1221445</v>
+        <v>0.1241725</v>
       </c>
     </row>
     <row r="61">
@@ -3036,21 +3036,21 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0.724539 0.002214 0.275007 0.000189</t>
+          <t>0.725446 0.000976 0.272606 0.000101</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>-0.012173913043466301 0.373695652173913 0.029347826086955704 0.03282608695652174</t>
+          <t>0.17915789473685184 0.10126315789473685 -0.47705263157894534 0.013263157894736843</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.1417354914933834</v>
+        <v>0.270106903047093</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0.184265</v>
+        <v>0.1821636666666667</v>
       </c>
     </row>
     <row r="62">
@@ -3079,21 +3079,21 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0.332674 0.348839 0.202273 0.086108 0.03131 0.005323 4e-06</t>
+          <t>0.330982 0.349573 0.203236 0.087132 0.031832 0.005465 2e-06</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0.33000000000000423 -0.20804347826086644 -0.9245652173912998 1.6132608695652169 0.294347826086956 0.31391304347826077 0.0008695652173913043</t>
+          <t>-0.03663157894737 -0.04694736842104699 -0.6926315789473658 1.777894736842104 0.3949473684210525 0.3338947368421053 0.00042105263157894734</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.794796361058592</v>
+        <v>3.911663423822706</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>0.1939313333333333</v>
+        <v>0.195351</v>
       </c>
     </row>
     <row r="63">
@@ -3122,21 +3122,21 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0.546667 0.013116 0.365898 0.007238 0.061942 0.000981 0.000134</t>
+          <t>0.549419 0.011298 0.362088 0.006504 0.060049 0.000917 0.000129</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0.02195652173913429 -0.33565217391304353 0.05478260869564663 -0.26478260869565223 -0.416304347826087 0.0756521739130435 -0.010434782608695653</t>
+          <t>0.6006315789473673 -0.7077894736842103 -0.7490526315789485 -0.41094736842105256 -0.8016842105263156 0.05978947368421052 -0.011157894736842108</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.365396880907372</v>
+        <v>2.23807867036011</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>0.1700171666666667</v>
+        <v>0.1667568333333333</v>
       </c>
     </row>
     <row r="64">
@@ -3165,21 +3165,21 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.011278 0.011278 0.011278 0.011278 0.011278 0.011278 0.011278 0.011278 0.011278 0.011278 0.011278</t>
+          <t>0.011646 0.011646 0.011646 0.011646 0.011646 0.011646 0.011646 0.011646 0.011646 0.011646 0.011646</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0.195411 0.325783 0.269274 0.148828 0.064029 0.020713 0.00415 0.000382 6e-06 0.0 0.0</t>
+          <t>0.195607 0.323959 0.26988 0.150377 0.065205 0.021305 0.004332 0.000408 7e-06 0.0 0.0</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0.09930838801205975 -0.8974108884553991 -0.27194538038659216 1.789413016492284 1.0825500975350244 0.4622273452739847 0.23514807589998227 0.033871253768398654 0.0005320092214931726 0.0 0.0</t>
+          <t>0.11300017173278479 -1.0256740511763682 -0.21131719045165645 1.8658766958612398 1.1493216555040358 0.49845440494590426 0.2433453546281985 0.03503348789283874 0.0006010647432594882 0.0 0.0</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>5.533172687010731</v>
+        <v>6.220768826999022</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0.1698118</v>
+        <v>0.1711099</v>
       </c>
     </row>
     <row r="65">
@@ -3208,21 +3208,21 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0.433576 0.007959 0.40849 0.004004 0.137986 0.000674 0.015533</t>
+          <t>0.433663 0.006601 0.409851 0.003636 0.133993 0.000594 0.014602</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>-0.024782608695652825 0.3921739130434785 -0.5302173913043411 -0.04108695652173912 1.588913043478263 0.07521739130434783 0.32717391304347815</t>
+          <t>-0.005684210526315631 0.09389473684210531 -0.22694736842104588 -0.11726315789473679 0.6981052631578976 0.056 0.12084210526315786</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.074578260869565</v>
+        <v>0.5791940609418291</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0.2475771666666667</v>
+        <v>0.2439608333333333</v>
       </c>
     </row>
     <row r="66">
@@ -3251,21 +3251,21 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0.433296 0.011862 0.408951 0.006761 0.137707 0.001145 0.015449</t>
+          <t>0.433432 0.009761 0.410219 0.005742 0.134025 0.000939 0.014595</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>-0.05760869565216516 0.8926086956521738 -0.5721739130434712 0.8508695652173911 1.7206521739130447 0.10543478260869565 0.3582608695652171</t>
+          <t>-0.02715789473684005 0.42210526315789487 -0.2871578947368371 0.6094736842105263 0.8911578947368451 0.05873684210526315 0.167157894736842</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.951542296786385</v>
+        <v>1.458382404432135</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>0.2498823333333333</v>
+        <v>0.245965</v>
       </c>
     </row>
     <row r="67">
@@ -3294,21 +3294,21 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0.730788 0.014353 0.245211 0.004074 0.003518</t>
+          <t>0.731177 0.012156 0.244162 0.003794 0.001155</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0.013695652173920707 -0.31239130434782586 -0.01999999999999587 -0.2591304347826086 0.13086956521739124</t>
+          <t>0.09515789473684379 -0.765052631578947 -0.24021052631579012 -0.3098947368421052 -0.3707368421052632</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.1824513232514176</v>
+        <v>0.8855422049861497</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>0.13276725</v>
+        <v>0.1291205</v>
       </c>
     </row>
     <row r="68">
@@ -3337,21 +3337,21 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.006479 0.006479 0.006479 0.006479 0.006479 0.006479</t>
+          <t>0.00669 0.00669 0.00669 0.00669 0.00669 0.00669</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0.557497 0.189675 0.186762 0.062071 0.001339 0.000128</t>
+          <t>0.556257 0.192346 0.187284 0.063549 0.001331 0.000131</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0.3434171940114265 -0.8877913258218828 -0.22688686525698396 0.3106960950764008 0.050470751659206635 0.019756135206050313</t>
+          <t>0.1472346786248152 -0.46053811659192834 -0.14170403587444014 0.5218236173393116 0.047683109118086674 0.019581464872944696</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.057056122120448</v>
+        <v>0.5288104414817199</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0.1510816</v>
+        <v>0.152708</v>
       </c>
     </row>
     <row r="69">
@@ -3380,21 +3380,21 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0.55996 0.015238 0.359869 0.007716 0.060257 0.00102</t>
+          <t>0.560057 0.013449 0.360006 0.007244 0.059055 0.000996</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>-0.016956521739135325 0.3126086956521739 -0.06630434782608689 0.17304347826086952 0.4521739130434779 0.028043478260869587</t>
+          <t>0.003999999999998157 -0.0738947368421054 -0.03536842105263189 0.0682105263157894 0.1848421052631587 0.02210526315789473</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.3375997164461246</v>
+        <v>0.04603527977839367</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0.2008504</v>
+        <v>0.1992786</v>
       </c>
     </row>
     <row r="70">
@@ -3423,21 +3423,21 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0.088162 0.088162 0.088162 0.088162</t>
+          <t>0.091037 0.091037 0.091037 0.091037</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0.752243 0.001913 0.241721 0.000166</t>
+          <t>0.750488 0.001168 0.247003 0.000175</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>-0.005705405957215481 -0.059277239627050206 0.018227807899094818 0.0018715546380526757</t>
+          <t>-0.024803102035435943 -0.06558871667563738 0.07567252875204593 0.0019113107857244855</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.003882098492508881</v>
+        <v>0.01064705834238612</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>0.161951</v>
+        <v>0.165233</v>
       </c>
     </row>
     <row r="71">
@@ -3466,21 +3466,21 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0.498064 0.027058 0.358691 0.022885 0.082742 0.007095 0.005394 0.000746 1e-06 0.0</t>
+          <t>0.498077 0.026942 0.358226 0.022715 0.084517 0.007316 0.005624 0.000794 1e-06 0.0</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0.14369565217391797 -1.4439130434782614 -0.3513043478260883 -0.8660869565217395 1.2245652173913042 1.5423913043478261 0.170217391304348 0.16217391304347828 0.00021739130434782607 -0.00021739130434782607</t>
+          <t>0.14189473684210693 -1.4227368421052633 -0.43810526315789466 -0.874526315789474 1.5595789473684207 1.5402105263157895 0.21326315789473685 0.16715789473684212 0.00021052631578947367 -0.00021052631578947367</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>6.912860018903595</v>
+        <v>7.879004720221608</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>0.1352368888888889</v>
+        <v>0.1361663333333333</v>
       </c>
     </row>
     <row r="72">
@@ -3509,21 +3509,21 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.014595 0.014595 0.014595 0.014595 0.014595 0.014595 0.014595 0.014595 0.014595 0.014595</t>
+          <t>0.015071 0.015071 0.015071 0.015071 0.015071 0.015071 0.015071 0.015071 0.015071 0.015071</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0.506995 0.02734 0.368431 0.023507 0.084993 0.007288 0.005541 0.000767 1e-06 0.0</t>
+          <t>0.507009 0.02722 0.367952 0.023332 0.086816 0.007515 0.005777 0.000815 1e-06 0.0</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>-0.004042480301475249 0.04741349777320988 -0.15162726961287873 0.4692702980472765 0.47379239465570433 0.436382322713258 0.379650565262076 0.05255224391915039 6.851661527920521e-05 0.0</t>
+          <t>-0.0029858668966864666 0.037953685886802445 -0.1786211930197049 0.44283723707783157 0.5797889987393013 0.43766173445690404 0.3833189569371641 0.054077367128923096 6.635259770420012e-05 0.0</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.8072748824871973</v>
+        <v>0.9070206124646353</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>0.138862</v>
+        <v>0.1398148888888889</v>
       </c>
     </row>
     <row r="73">
@@ -3552,21 +3552,21 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0.578817 0.0161 0.363842 0.007801 0.060919 0.001031</t>
+          <t>0.578916 0.014287 0.364069 0.007326 0.059719 0.001008</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>-0.14152173913042548 2.5963043478260865 -0.3347826086956491 1.4082608695652172 2.474782608695652 0.19478260869565217</t>
+          <t>-0.11621052631578883 2.1326315789473687 -0.2764210526315808 1.2637894736842106 2.1439999999999997 0.18378947368421053</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>15.01859196597353</v>
+        <v>10.86570934072022</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>0.2032036</v>
+        <v>0.2016638</v>
       </c>
     </row>
     <row r="74">
@@ -3595,21 +3595,21 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0.735906 0.003887 0.254452 0.000736</t>
+          <t>0.739449 0.001262 0.243366 0.000205</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0.48108695652171946 -0.28021739130434786 -1.3873913043478259 0.09543478260869565</t>
+          <t>1.211789473684207 -0.824 -3.6774736842105287 -0.019368421052631583</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.243928875236275</v>
+        <v>15.67159756232688</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0.1716663333333333</v>
+        <v>0.1628696666666667</v>
       </c>
     </row>
     <row r="75">
@@ -3638,21 +3638,21 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0.005681 0.005681 0.005681 0.005681 0.005681 0.005681</t>
+          <t>0.005866 0.005866 0.005866 0.005866 0.005866 0.005866</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0.437192 0.317534 0.163486 0.060472 0.021658 1.5e-05</t>
+          <t>0.436886 0.31768 0.163742 0.061137 0.021902 8e-06</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1.0059848618201066 -0.41858827671184495 -2.3580355571202287 1.003696532300651 0.8271431086076397 0.002640380214750924</t>
+          <t>0.9220934197067844 -0.3804977838390652 -2.240027275826801 1.0854074326628023 0.8426525741561547 0.0013637913399249914</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>8.439132798932258</v>
+        <v>7.900931550159499</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0.1825258</v>
+        <v>0.1832446</v>
       </c>
     </row>
     <row r="76">
@@ -3681,21 +3681,21 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0.006891 0.006891 0.006891 0.006891 0.006891 0.006891 0.006891 0.006891</t>
+          <t>0.007116 0.007116 0.007116 0.007116 0.007116 0.007116 0.007116 0.007116</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0.324241 0.234277 0.303235 0.098301 0.049187 0.012255 0.001922 1e-06</t>
+          <t>0.324922 0.234209 0.302334 0.098673 0.049525 0.012408 0.001941 1e-06</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0.08170076911913803 -0.7688289072703521 -0.32564214192425245 1.5260484690175586 1.892033086634741 0.7141198664925265 0.2789145261935858 0.00014511681903932663</t>
+          <t>0.17481731309724105 -0.7540753232152908 -0.44196177627880956 1.530073074761101 1.879707700955593 0.7130410342889264 0.2727655986509275 0.0001405283867341203</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>7.200189357337606</v>
+        <v>7.251774161008403</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0.2007445714285714</v>
+        <v>0.2009555714285714</v>
       </c>
     </row>
     <row r="77">
@@ -3724,21 +3724,21 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0.011775 0.011775 0.011775 0.011775</t>
+          <t>0.012159 0.012159 0.012159 0.012159</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0.719912 0.074476 0.203039 0.000161</t>
+          <t>0.719873 0.075669 0.202755 0.000131</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0.009936305732486942 -0.30488322717622046 0.07643312101910693 0.013673036093418259</t>
+          <t>0.006415001233655934 -0.19713792252652326 0.05066206102475349 0.010773912328316475</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.09908148628972967</v>
+        <v>0.04158723435303539</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0.1603456666666667</v>
+        <v>0.160524</v>
       </c>
     </row>
     <row r="78">
@@ -3767,21 +3767,21 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0.646785 0.021763 0.291738 0.006416 0.031041</t>
+          <t>0.646761 0.022302 0.291848 0.006645 0.030035</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0.019782608695665924 -0.45065217391304313 0.008478260869567662 0.135 -0.20326086956521702</t>
+          <t>0.014105263157903001 -0.32294736842105276 0.03136842105263373 0.17894736842105266 -0.40863157894736807</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.2630905954631381</v>
+        <v>0.3044798670360113</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0.18716275</v>
+        <v>0.18651825</v>
       </c>
     </row>
     <row r="79">
@@ -3810,21 +3810,21 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0.738533 0.013249 0.243139 0.003867 0.000528</t>
+          <t>0.738097 0.01204 0.244539 0.003754 0.000529</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0.23891304347825243 0.06391304347826106 -0.7323913043478285 0.16608695652173922 0.11478260869565218</t>
+          <t>0.13957894736841456 -0.19263157894736824 -0.4145263157894734 0.1370526315789474 0.11136842105263157</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.6383212665406424</v>
+        <v>0.259607623268696</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>0.12831</v>
+        <v>0.128624</v>
       </c>
     </row>
     <row r="80">
@@ -3853,21 +3853,21 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0.005562 0.005562 0.005562 0.005562 0.005562 0.005562 0.005562 0.005562 0.005562 0.005562 0.005562 0.005562</t>
+          <t>0.005744 0.005744 0.005744 0.005744 0.005744 0.005744 0.005744 0.005744 0.005744 0.005744 0.005744 0.005744</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0.249232 0.21458 0.248517 0.156013 0.086123 0.036545 0.012416 0.002935 0.000686 5.8e-05 0.0 0.0</t>
+          <t>0.249494 0.212394 0.248508 0.157377 0.087568 0.037646 0.012822 0.003082 0.000722 6.2e-05 0.0 0.0</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>-0.05753326141675422 0.558791801510248 -1.4978425026968776 1.2029845379359947 0.5075512405609504 0.7777777777777783 0.46080546565983443 0.3594030924128011 0.12333692916217187 0.010427903631787127 -1.168284789644013 0.0</t>
+          <t>-0.010097493036212133 0.1605153203342629 -1.4519498607242365 1.4023328690807764 0.7430362116991633 0.9448119777158777 0.5168871866295264 0.37360724233983295 0.12569637883008355 0.010793871866295265 -1.1312674094707522 0.0</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>6.590531197403266</v>
+        <v>7.247772260602801</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         </is>
       </c>
       <c r="I80" t="n">
-        <v>0.1643564545454546</v>
+        <v>0.1658984545454545</v>
       </c>
     </row>
     <row r="81">
@@ -3896,21 +3896,21 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0.497231 0.027061 0.357316 0.022797 0.082423 0.007067 0.005373 0.000744 1e-06 0.0</t>
+          <t>0.497245 0.026944 0.356865 0.022628 0.084195 0.007288 0.005603 0.000791 1e-06 0.0</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>-0.02108695652174212 0.22065217391304393 -0.11934782608694917 -1.3941304347826085 0.951086956521737 -0.43086956521739117 0.6345652173913043 0.1617391304347826 0.00021739130434782607 0.0</t>
+          <t>-0.017473684210526263 0.18905263157894728 -0.21052631578947387 -1.385684210526316 1.2941052631578946 -0.3707368421052631 0.6629473684210527 0.1665263157894737 0.00021052631578947367 0.0</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.526023204158784</v>
+        <v>4.279872797783934</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="I81" t="n">
-        <v>0.1347294444444444</v>
+        <v>0.1356601111111111</v>
       </c>
     </row>
     <row r="82">
@@ -3939,21 +3939,21 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0.005915 0.005915 0.005915 0.005915 0.005915 0.005915 0.005915 0.005915 0.005915 0.005915</t>
+          <t>0.006108 0.006108 0.006108 0.006108 0.006108 0.006108 0.006108 0.006108 0.006108 0.006108</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>0.324063 0.24609 0.234762 0.128838 0.059421 0.016377 0.005688 0.000164 1e-06 0.0</t>
+          <t>0.323645 0.245623 0.23518 0.129687 0.059873 0.016618 0.005787 0.000164 1e-06 0.0</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0.6953508030431069 -1.4911242603550334 -0.10177514792899263 0.3234150464919692 1.7856297548605244 0.9323753169907014 0.43229078613694 0.027726120033812342 0.00016906170752324596 0.0</t>
+          <t>0.6049443352979705 -1.5204649639816663 -0.030124426981006834 0.4521938441388322 1.8032089063523253 0.942370661427636 0.4348395546823837 0.026850032743942372 0.00016371971185330714 0.0</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>7.067361215415062</v>
+        <v>7.21258932212964</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0.1618867777777778</v>
+        <v>0.1626115555555555</v>
       </c>
     </row>
     <row r="83">
@@ -3982,21 +3982,21 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0.0046 0.0046 0.0046 0.0046 0.0046 0.0046</t>
+          <t>0.00475 0.00475 0.00475 0.00475 0.00475 0.00475</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0.559106 0.007223 0.369474 0.002584 0.063703 0.000184</t>
+          <t>0.560432 0.004436 0.368049 0.001935 0.060426 0.000157</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>-0.014565217391312881 0.2680434782608697 -0.023695652173906574 0.033913043478260844 0.23391304347825947 -0.003260869565217394</t>
+          <t>0.2650526315789495 -0.3271578947368421 -0.3229473684210484 -0.10378947368421051 -0.46336842105263193 -0.0088421052631579</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.1284969754253302</v>
+        <v>0.5071409196675888</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0.201931</v>
+        <v>0.1977656</v>
       </c>
     </row>
   </sheetData>
